--- a/vi. Estimación de duraciones..xlsx
+++ b/vi. Estimación de duraciones..xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -171,7 +171,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +181,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,7 +239,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -245,6 +251,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Excel Built-in Normal" xfId="6"/>
@@ -262,6 +272,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -310,7 +323,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,7 +358,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -554,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E202"/>
+  <dimension ref="B2:K202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="E184" sqref="E184"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="E181" sqref="E181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,12 +646,12 @@
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
@@ -669,12 +682,12 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
@@ -705,12 +718,12 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
@@ -741,12 +754,12 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
@@ -777,12 +790,12 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
@@ -813,12 +826,12 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
@@ -849,12 +862,12 @@
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
@@ -885,12 +898,12 @@
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
@@ -921,12 +934,12 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
@@ -957,12 +970,12 @@
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
@@ -993,12 +1006,12 @@
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
@@ -1029,12 +1042,12 @@
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
@@ -1065,12 +1078,12 @@
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
@@ -1101,12 +1114,12 @@
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
@@ -1137,12 +1150,12 @@
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
@@ -1181,12 +1194,12 @@
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
@@ -1202,7 +1215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
         <v>6</v>
       </c>
@@ -1215,16 +1228,17 @@
       <c r="E65" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="3" t="s">
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>12</v>
       </c>
@@ -1238,7 +1252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
         <v>3</v>
       </c>
@@ -1252,15 +1266,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="3" t="s">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>12</v>
       </c>
@@ -1274,7 +1288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
         <v>5</v>
       </c>
@@ -1288,15 +1302,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="3" t="s">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>12</v>
       </c>
@@ -1310,7 +1324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="2">
         <v>4</v>
       </c>
@@ -1324,15 +1338,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="3" t="s">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>12</v>
       </c>
@@ -1346,7 +1360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
         <v>7</v>
       </c>
@@ -1360,15 +1374,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="3" t="s">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>12</v>
       </c>
@@ -1382,7 +1396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
         <v>7</v>
       </c>
@@ -1397,12 +1411,12 @@
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
@@ -1433,12 +1447,12 @@
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
@@ -1469,12 +1483,12 @@
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
@@ -1505,12 +1519,12 @@
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
@@ -1541,12 +1555,12 @@
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
@@ -1577,12 +1591,12 @@
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
@@ -1613,12 +1627,12 @@
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
@@ -1649,12 +1663,12 @@
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" s="2" t="s">
@@ -1685,12 +1699,12 @@
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
@@ -1729,12 +1743,12 @@
       <c r="E110" s="4"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
@@ -1765,12 +1779,12 @@
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
@@ -1801,12 +1815,12 @@
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
@@ -1837,12 +1851,12 @@
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" s="2" t="s">
@@ -1873,12 +1887,12 @@
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" s="2" t="s">
@@ -1909,12 +1923,12 @@
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127" s="2" t="s">
@@ -1944,15 +1958,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B129" s="3" t="s">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B129" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" s="2" t="s">
         <v>12</v>
       </c>
@@ -1966,7 +1980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" s="2">
         <v>3</v>
       </c>
@@ -1980,15 +1994,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B132" s="3" t="s">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B132" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="2" t="s">
         <v>12</v>
       </c>
@@ -2002,7 +2016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="2">
         <v>4</v>
       </c>
@@ -2016,15 +2030,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B135" s="3" t="s">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B135" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" s="2" t="s">
         <v>12</v>
       </c>
@@ -2037,8 +2051,9 @@
       <c r="E136" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H136" s="6"/>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" s="2">
         <v>10</v>
       </c>
@@ -2052,15 +2067,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B138" s="3" t="s">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B138" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" s="2" t="s">
         <v>12</v>
       </c>
@@ -2074,7 +2089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" s="2">
         <v>75</v>
       </c>
@@ -2088,29 +2103,29 @@
         <v>74</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B141" s="3" t="s">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B141" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D142" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" s="2">
         <v>5</v>
       </c>
@@ -2124,15 +2139,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B144" s="3" t="s">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B144" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B145" s="2" t="s">
         <v>12</v>
       </c>
@@ -2146,7 +2161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B146" s="2">
         <v>8</v>
       </c>
@@ -2160,15 +2175,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B147" s="3" t="s">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B147" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B148" s="2" t="s">
         <v>12</v>
       </c>
@@ -2182,7 +2197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B149" s="2">
         <v>6</v>
       </c>
@@ -2196,15 +2211,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B150" s="3" t="s">
+    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B150" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B151" s="2" t="s">
         <v>12</v>
       </c>
@@ -2218,7 +2233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B152" s="2">
         <v>2</v>
       </c>
@@ -2232,15 +2247,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B153" s="3" t="s">
+    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B153" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B154" s="2" t="s">
         <v>12</v>
       </c>
@@ -2254,7 +2269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B155" s="2">
         <v>3</v>
       </c>
@@ -2267,8 +2282,9 @@
       <c r="E155" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="K155" s="6"/>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B157" s="4" t="s">
         <v>32</v>
       </c>
@@ -2276,15 +2292,15 @@
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B158" s="3" t="s">
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B158" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B159" s="2" t="s">
         <v>12</v>
       </c>
@@ -2298,7 +2314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B160" s="2">
         <v>6</v>
       </c>
@@ -2313,12 +2329,12 @@
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162" s="2" t="s">
@@ -2349,12 +2365,12 @@
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165" s="2" t="s">
@@ -2385,12 +2401,12 @@
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B168" s="2" t="s">
@@ -2421,12 +2437,12 @@
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B171" s="2" t="s">
@@ -2457,12 +2473,12 @@
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B174" s="2" t="s">
@@ -2493,12 +2509,12 @@
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B177" s="2" t="s">
@@ -2529,12 +2545,12 @@
       </c>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B180" s="2" t="s">
@@ -2551,26 +2567,26 @@
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B181" s="2">
-        <v>4</v>
-      </c>
-      <c r="C181" s="2">
-        <v>3</v>
-      </c>
-      <c r="D181" s="2">
-        <v>5</v>
-      </c>
-      <c r="E181" s="2">
+      <c r="B181" s="3">
+        <v>4</v>
+      </c>
+      <c r="C181" s="3">
+        <v>3</v>
+      </c>
+      <c r="D181" s="3">
+        <v>5</v>
+      </c>
+      <c r="E181" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B183" s="2" t="s">
@@ -2596,17 +2612,17 @@
       <c r="D184" s="2">
         <v>14</v>
       </c>
-      <c r="E184" s="2">
+      <c r="E184" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B186" s="2" t="s">
@@ -2637,12 +2653,12 @@
       </c>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B188" s="3" t="s">
+      <c r="B188" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B189" s="2" t="s">
@@ -2673,12 +2689,12 @@
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B192" s="2" t="s">
@@ -2709,12 +2725,12 @@
       </c>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C194" s="3"/>
-      <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B195" s="2" t="s">
@@ -2745,12 +2761,12 @@
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B198" s="2" t="s">
@@ -2781,12 +2797,12 @@
       </c>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B201" s="2" t="s">
@@ -2818,54 +2834,6 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="B105:E105"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="B117:E117"/>
-    <mergeCell ref="B120:E120"/>
-    <mergeCell ref="B123:E123"/>
-    <mergeCell ref="B126:E126"/>
-    <mergeCell ref="B129:E129"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B158:E158"/>
-    <mergeCell ref="B161:E161"/>
-    <mergeCell ref="B164:E164"/>
-    <mergeCell ref="B135:E135"/>
-    <mergeCell ref="B138:E138"/>
-    <mergeCell ref="B141:E141"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="B147:E147"/>
     <mergeCell ref="B197:E197"/>
     <mergeCell ref="B200:E200"/>
     <mergeCell ref="B62:E62"/>
@@ -2882,6 +2850,54 @@
     <mergeCell ref="B176:E176"/>
     <mergeCell ref="B179:E179"/>
     <mergeCell ref="B150:E150"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="B161:E161"/>
+    <mergeCell ref="B164:E164"/>
+    <mergeCell ref="B135:E135"/>
+    <mergeCell ref="B138:E138"/>
+    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="B147:E147"/>
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="B123:E123"/>
+    <mergeCell ref="B126:E126"/>
+    <mergeCell ref="B129:E129"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="B117:E117"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B66:E66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
